--- a/ListadoTipicas.xlsx
+++ b/ListadoTipicas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Grupos\Ger_Calidad_Eva_Ambiental_Bio\DpMNatural_TEC\3081208_PN_RESTAURACION\CARTOGRAFÍA\THIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DB864-8F49-424E-9F93-AAF67B9DEFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D0D49-F621-4925-87A6-630A4648DF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70B4E44E-906A-495E-9C54-66784AB6BD6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70B4E44E-906A-495E-9C54-66784AB6BD6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>Habitat</t>
   </si>
@@ -66,9 +69,6 @@
     <t>Dominante</t>
   </si>
   <si>
-    <t>Scilla lilio-hyacinthus</t>
-  </si>
-  <si>
     <t>Muy abundante</t>
   </si>
   <si>
@@ -103,6 +103,84 @@
   </si>
   <si>
     <t>Diagnostica</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Deschampsia flexuosa</t>
+  </si>
+  <si>
+    <t>Vaccinum myrtillus</t>
+  </si>
+  <si>
+    <t>Blechnum spicant</t>
+  </si>
+  <si>
+    <t>Ilex aquifolium</t>
+  </si>
+  <si>
+    <t>Taxus baccata</t>
+  </si>
+  <si>
+    <t>Luzula sylvatica subsp. henriquesii</t>
+  </si>
+  <si>
+    <t>Betula celtiberica</t>
+  </si>
+  <si>
+    <t>Omphalodes nitida</t>
+  </si>
+  <si>
+    <t>Saxifraga spathularis</t>
+  </si>
+  <si>
+    <t>Saxifraga x polita</t>
+  </si>
+  <si>
+    <t>Quercus robur</t>
+  </si>
+  <si>
+    <t>Daphne laureola</t>
+  </si>
+  <si>
+    <t>Galium odoratum</t>
+  </si>
+  <si>
+    <t>Melica uniflora</t>
+  </si>
+  <si>
+    <t>Mercurialis perennis</t>
+  </si>
+  <si>
+    <t>Castanea sativa</t>
+  </si>
+  <si>
+    <t>Acer pseudoplatanus</t>
+  </si>
+  <si>
+    <t>Ruscus aculeatus</t>
+  </si>
+  <si>
+    <t>Betula pendula</t>
+  </si>
+  <si>
+    <t>Lysimachia nemorum</t>
+  </si>
+  <si>
+    <t>Erica vagans</t>
+  </si>
+  <si>
+    <t>Luzula nutans</t>
+  </si>
+  <si>
+    <t>Luzula nivea</t>
+  </si>
+  <si>
+    <t>Galium rotundifolium</t>
+  </si>
+  <si>
+    <t>Scilla hyacinthoides</t>
   </si>
 </sst>
 </file>
@@ -454,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD04478-6A49-4D32-B79D-479B7C261BD4}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,7 +599,7 @@
         <v>9130</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -530,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +658,7 @@
         <v>9130</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -589,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,13 +675,13 @@
         <v>9130</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,13 +689,13 @@
         <v>9130</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +703,7 @@
         <v>9130</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -634,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +720,7 @@
         <v>9130</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -651,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,13 +737,13 @@
         <v>9130</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,13 +751,512 @@
         <v>9130</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
